--- a/src/models/data/schedule.xlsx
+++ b/src/models/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F73DF-C661-4EBA-B812-5F79EB653D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C16E18-A20A-40A4-ACD9-1DBCE3A5F73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="2184" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -144,6 +144,72 @@
   </si>
   <si>
     <t>353066b6-4bb7-4df8-8f46-88f71bf6a182</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Booked</t>
+  </si>
+  <si>
+    <t>1aff8187-23a0-4da6-b842-1ec012d2c703</t>
+  </si>
+  <si>
+    <t>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</t>
+  </si>
+  <si>
+    <t>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>6f1b004a-be3b-4484-8731-80bad98196aa</t>
+  </si>
+  <si>
+    <t>be3f79a3-53f2-4eba-96fb-357a6b2c6491</t>
+  </si>
+  <si>
+    <t>d492740a-67f4-4818-8199-e1dd9d1f3e54</t>
+  </si>
+  <si>
+    <t>a4725394-0652-4705-b928-b8475906bceb</t>
+  </si>
+  <si>
+    <t>25d7180d-0fae-4cf3-81c7-139cf3e30e11</t>
+  </si>
+  <si>
+    <t>cbe5ad87-2ab7-4fe1-810f-724f45678c90</t>
+  </si>
+  <si>
+    <t>2a8c48bb-658b-47f3-b565-b960d1988bcf</t>
+  </si>
+  <si>
+    <t>a6250655-7ffc-4460-9cf3-c5de049f9e72</t>
+  </si>
+  <si>
+    <t>96643f7c-e003-45f1-8eaf-90ed70754b8f</t>
+  </si>
+  <si>
+    <t>fb718b4c-d440-4d6d-8308-e5a4803d0257</t>
+  </si>
+  <si>
+    <t>5fa3496b-976c-417d-aaa7-238975d8e7fd</t>
+  </si>
+  <si>
+    <t>4600b1d8-e1bf-41a9-9ff9-2a64ad2a194a</t>
   </si>
 </sst>
 </file>
@@ -191,8 +257,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,8 +553,8 @@
     <col min="2" max="2" width="36.21875" customWidth="1"/>
     <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
@@ -495,7 +562,7 @@
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +572,17 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -516,8 +592,17 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>45015</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -527,8 +612,17 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>45016</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -538,8 +632,17 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>45017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -549,8 +652,17 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>45018</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -560,8 +672,17 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>45019</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -571,8 +692,17 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>45020</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -582,8 +712,17 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>45021</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -593,8 +732,17 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>45022</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -604,82 +752,394 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>45023</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>45015</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>45016</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>45017</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <v>45018</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>45019</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>45020</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45021</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45019</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45020</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45021</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45019</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45020</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45021</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45021</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45019</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45020</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45017</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45018</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45019</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/models/data/schedule.xlsx
+++ b/src/models/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C16E18-A20A-40A4-ACD9-1DBCE3A5F73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3291FC4-2274-41ED-9CDA-7579BCD309DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="2184" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -210,6 +210,42 @@
   </si>
   <si>
     <t>4600b1d8-e1bf-41a9-9ff9-2a64ad2a194a</t>
+  </si>
+  <si>
+    <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-04-02</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-04-04</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>2023-04-08</t>
+  </si>
+  <si>
+    <t>2023-04-09</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
   </si>
 </sst>
 </file>
@@ -259,7 +295,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:G67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +588,7 @@
     <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.21875" customWidth="1"/>
     <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.6640625" bestFit="1" customWidth="1"/>
@@ -572,7 +608,7 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" t="s">
@@ -592,8 +628,8 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>45015</v>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -612,8 +648,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>45016</v>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -632,8 +668,8 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>45017</v>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -652,8 +688,8 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>45018</v>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -672,8 +708,8 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>45019</v>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -692,8 +728,8 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>45020</v>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -712,8 +748,8 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
-        <v>45021</v>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -732,8 +768,8 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
-        <v>45022</v>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -752,8 +788,8 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
-        <v>45023</v>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -772,8 +808,8 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
-        <v>45015</v>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -792,8 +828,8 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1">
-        <v>45016</v>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -812,8 +848,8 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
-        <v>45017</v>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -832,8 +868,8 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1">
-        <v>45018</v>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -852,8 +888,8 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1">
-        <v>45019</v>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -872,8 +908,8 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1">
-        <v>45020</v>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -892,8 +928,8 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1">
-        <v>45021</v>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -912,8 +948,8 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1">
-        <v>45019</v>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -932,8 +968,8 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1">
-        <v>45020</v>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -952,8 +988,8 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1">
-        <v>45021</v>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -972,8 +1008,8 @@
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1">
-        <v>45019</v>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E21" t="s">
         <v>42</v>
@@ -992,8 +1028,8 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>45020</v>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -1012,8 +1048,8 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1">
-        <v>45021</v>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
@@ -1032,8 +1068,8 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1">
-        <v>45021</v>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -1052,8 +1088,8 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1">
-        <v>45019</v>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -1072,8 +1108,8 @@
       <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1">
-        <v>45020</v>
+      <c r="D26" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -1092,8 +1128,8 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="1">
-        <v>45017</v>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>42</v>
@@ -1112,8 +1148,8 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1">
-        <v>45018</v>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -1132,8 +1168,8 @@
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="1">
-        <v>45019</v>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>

--- a/src/models/data/schedule.xlsx
+++ b/src/models/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3291FC4-2274-41ED-9CDA-7579BCD309DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5B0150-FC0B-4138-AB61-0E79D7D56853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +975,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
@@ -992,7 +995,7 @@
         <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>

--- a/src/models/data/schedule.xlsx
+++ b/src/models/data/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5B0150-FC0B-4138-AB61-0E79D7D56853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70BC14-54C7-4EAF-9B8E-71AFC6F9931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -146,15 +146,6 @@
     <t>353066b6-4bb7-4df8-8f46-88f71bf6a182</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Booked</t>
-  </si>
-  <si>
     <t>1aff8187-23a0-4da6-b842-1ec012d2c703</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</t>
   </si>
   <si>
-    <t>Hidden</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -212,43 +200,487 @@
     <t>4600b1d8-e1bf-41a9-9ff9-2a64ad2a194a</t>
   </si>
   <si>
-    <t>2023-03-30</t>
-  </si>
-  <si>
-    <t>2023-03-31</t>
-  </si>
-  <si>
     <t>2023-04-01</t>
   </si>
   <si>
-    <t>2023-04-02</t>
-  </si>
-  <si>
-    <t>2023-04-03</t>
-  </si>
-  <si>
-    <t>2023-04-04</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>2023-04-08</t>
-  </si>
-  <si>
-    <t>2023-04-09</t>
-  </si>
-  <si>
-    <t>2023-04-10</t>
-  </si>
-  <si>
-    <t>Empty</t>
+    <t>day_of_week</t>
+  </si>
+  <si>
+    <t>apply_from</t>
+  </si>
+  <si>
+    <t>apply_to</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>65e5b21f-1fc2-49f0-81e0-be6d987f8c46</t>
+  </si>
+  <si>
+    <t>46cdeee8-4f22-4dc3-8eff-5713cd3c9730</t>
+  </si>
+  <si>
+    <t>6ef4289e-7eb9-4787-b4b1-5303e73a101f</t>
+  </si>
+  <si>
+    <t>96fa2ed6-8911-46d8-88ba-e9c569cb7458</t>
+  </si>
+  <si>
+    <t>5b33658d-6422-487c-bd7c-814c754b5dda</t>
+  </si>
+  <si>
+    <t>b30a131f-b28e-4ba2-9bad-ab14b88df71e</t>
+  </si>
+  <si>
+    <t>03faa117-3f5d-48ba-a4f1-f8424aa70050</t>
+  </si>
+  <si>
+    <t>c6790757-a17a-4895-a68d-010faace6d02</t>
+  </si>
+  <si>
+    <t>a6ae4c9f-ce60-4193-836b-cf3e1e8bcce6</t>
+  </si>
+  <si>
+    <t>df725c08-fa29-4b76-b4fa-f558a1e7ebc7</t>
+  </si>
+  <si>
+    <t>22374dfa-5d73-4ab1-9737-54eb52610eaa</t>
+  </si>
+  <si>
+    <t>f946f867-d05e-460f-8131-241241e3cead</t>
+  </si>
+  <si>
+    <t>982776e0-5571-408b-8b6c-dc97bd577328</t>
+  </si>
+  <si>
+    <t>0c19c43d-567f-41ba-9820-cceeecc47832</t>
+  </si>
+  <si>
+    <t>f6867ea5-5a6f-4b46-a20e-8184e697ab84</t>
+  </si>
+  <si>
+    <t>ef588b62-e0b4-49f2-9e64-c5f730ef59ae</t>
+  </si>
+  <si>
+    <t>2228bafb-87da-407f-a90c-6528ae2fa280</t>
+  </si>
+  <si>
+    <t>f92f6bc3-30f4-4f2f-a992-fc052571c050</t>
+  </si>
+  <si>
+    <t>83421efb-18f3-4c40-a2d0-21d62185ba68</t>
+  </si>
+  <si>
+    <t>76b012e8-9e21-4856-9722-a09db1a81490</t>
+  </si>
+  <si>
+    <t>5eafb086-f1d2-4b13-8e0f-4e2d05a12d72</t>
+  </si>
+  <si>
+    <t>160642b6-5b62-439d-9163-6d9ebca51a34</t>
+  </si>
+  <si>
+    <t>60aa5c91-e3c9-4fb4-bb9c-953ed6c7bb25</t>
+  </si>
+  <si>
+    <t>c34bd1d9-d08f-409d-8e95-eebeacaadbb3</t>
+  </si>
+  <si>
+    <t>e2e098a6-a2d4-467c-82cb-73611e90f68f</t>
+  </si>
+  <si>
+    <t>d13fc0ed-f8df-485f-835b-173367bb8516</t>
+  </si>
+  <si>
+    <t>f22e5372-5972-4333-91ab-37b2457208ce</t>
+  </si>
+  <si>
+    <t>20f7f76c-9bd4-4cb5-ad4e-c087e3e90432</t>
+  </si>
+  <si>
+    <t>fab0ea61-a9ff-43b6-8471-91a0972c9da5</t>
+  </si>
+  <si>
+    <t>f023d3ab-aaf2-49f6-85cb-29dc11bedda8</t>
+  </si>
+  <si>
+    <t>f6f7c5d6-e18c-4e48-a35c-ea5160f10843</t>
+  </si>
+  <si>
+    <t>49f7bc63-4dba-4955-8544-bbdf6d81d0b5</t>
+  </si>
+  <si>
+    <t>707c62d7-bff0-4bb8-bf24-176d8e56963c</t>
+  </si>
+  <si>
+    <t>125ba4f1-488d-4981-9415-522edd9d752e</t>
+  </si>
+  <si>
+    <t>d433ffd2-44f1-46ec-9a0c-6a8702a6ea2c</t>
+  </si>
+  <si>
+    <t>5e449c44-91a9-4f47-8e13-31789d68c0ef</t>
+  </si>
+  <si>
+    <t>8655a496-9823-4b5b-b2dc-b7b6f71445b8</t>
+  </si>
+  <si>
+    <t>94569f6f-5d04-414f-892f-c6bed1171852</t>
+  </si>
+  <si>
+    <t>2ebfee06-d38e-4601-8659-50d601f282c5</t>
+  </si>
+  <si>
+    <t>48c54650-ce76-4ffb-961f-21aafb39bf97</t>
+  </si>
+  <si>
+    <t>87323314-aed9-44bb-9806-b66213dab8cd</t>
+  </si>
+  <si>
+    <t>3b6d9557-cac7-41fd-ad00-8c17f51b5fb4</t>
+  </si>
+  <si>
+    <t>c786d975-45b3-4f62-926b-3b2aa00b8337</t>
+  </si>
+  <si>
+    <t>ceb5ce9c-68f8-4f8f-9e6f-979d90dcfb57</t>
+  </si>
+  <si>
+    <t>aa4f0360-941f-44e2-99ad-654ac2db885f</t>
+  </si>
+  <si>
+    <t>6f481eb4-7951-4bb7-a5bb-5e5f05fdea74</t>
+  </si>
+  <si>
+    <t>dc64d84d-3dae-49a7-b284-95cb6b9921ab</t>
+  </si>
+  <si>
+    <t>3a85888c-5ca6-4790-bd12-6e2ca1d89e7d</t>
+  </si>
+  <si>
+    <t>5cdb727c-419f-48b2-b239-fadb3b6c02d5</t>
+  </si>
+  <si>
+    <t>b99f75bf-643c-41cd-b4a0-e5fa94bd7b6c</t>
+  </si>
+  <si>
+    <t>7012d4a2-4060-4a55-94d9-bd85cee1335b</t>
+  </si>
+  <si>
+    <t>21ca525b-044f-40c0-825e-61014989331f</t>
+  </si>
+  <si>
+    <t>6e3125e8-8426-49fd-8128-b2a41d38565d</t>
+  </si>
+  <si>
+    <t>f02d4731-3b85-4f17-bac0-3deb12c17396</t>
+  </si>
+  <si>
+    <t>644ac97e-62d1-431a-a3ec-83930e238730</t>
+  </si>
+  <si>
+    <t>380f793e-13e5-4d23-8b46-bc63308a3efc</t>
+  </si>
+  <si>
+    <t>f948fa9e-97c5-4893-b866-9910fdbd146b</t>
+  </si>
+  <si>
+    <t>41cdebf2-b9e6-4388-8ed7-25a93048692a</t>
+  </si>
+  <si>
+    <t>ac773223-9cfb-4e0d-8ccf-53aaae492944</t>
+  </si>
+  <si>
+    <t>a639788a-d5ee-468a-80b8-d0b203e36c30</t>
+  </si>
+  <si>
+    <t>ffb57aef-ed9c-42c1-b759-8c770a42283a</t>
+  </si>
+  <si>
+    <t>d633990b-1690-4a5a-b815-0ce5e7cb0a4e</t>
+  </si>
+  <si>
+    <t>82920da8-757f-4955-b826-ccf8fa727e76</t>
+  </si>
+  <si>
+    <t>d711a00b-6545-4993-bbfe-e651b9ef9749</t>
+  </si>
+  <si>
+    <t>ae2fbddc-d89a-4e40-957e-c75ec5272a06</t>
+  </si>
+  <si>
+    <t>2b09c04a-9986-49b4-b3d7-07f83403e44a</t>
+  </si>
+  <si>
+    <t>0741179b-2227-4f36-a57a-ffb36544695d</t>
+  </si>
+  <si>
+    <t>4683307f-9a88-4a31-89b5-cdc69bed9a49</t>
+  </si>
+  <si>
+    <t>4146c023-bcdb-4826-9d0b-24e81218b1e7</t>
+  </si>
+  <si>
+    <t>cb0faacc-04e4-4798-8898-e2635b5498f9</t>
+  </si>
+  <si>
+    <t>41c7dd64-c205-4638-ba28-f06a3d33b472</t>
+  </si>
+  <si>
+    <t>9880d3d8-02ef-4015-924b-36be0fc29e32</t>
+  </si>
+  <si>
+    <t>d0a91dd2-6cd7-4676-a082-e6f4e675e9cb</t>
+  </si>
+  <si>
+    <t>97d63402-20b1-400d-9fec-74748e34351d</t>
+  </si>
+  <si>
+    <t>e42667bf-25ae-4601-8d41-f1068dbb6410</t>
+  </si>
+  <si>
+    <t>0394050c-8ccd-4bfe-b8f9-9775ea7e51c5</t>
+  </si>
+  <si>
+    <t>7f83156b-08c3-4147-86f1-2a09d2ad575a</t>
+  </si>
+  <si>
+    <t>74b98e45-bf36-49a6-8330-ec9db47e6110</t>
+  </si>
+  <si>
+    <t>9a624892-7078-4831-8d62-27825e3fef0c</t>
+  </si>
+  <si>
+    <t>29ce2167-4a8c-45c6-a05b-e6264a5e882d</t>
+  </si>
+  <si>
+    <t>8b55d28a-4000-452c-9e57-acde5ea49e5a</t>
+  </si>
+  <si>
+    <t>13ac942d-7f0d-4230-9ed5-16c65523cbc4</t>
+  </si>
+  <si>
+    <t>bacf8721-5414-43c6-b48c-f55e74dd0f83</t>
+  </si>
+  <si>
+    <t>7796b8d1-c357-4e3c-b646-819516e1dd67</t>
+  </si>
+  <si>
+    <t>e12b08d9-1f56-4775-a5d1-75fdc374c0ce</t>
+  </si>
+  <si>
+    <t>f6f3e186-0b01-45b8-a8d8-7f31f6756f50</t>
+  </si>
+  <si>
+    <t>ef6b9746-e884-4563-8090-f4bac0bbfbe7</t>
+  </si>
+  <si>
+    <t>8db151e9-692f-4056-bb3f-bff91729558a</t>
+  </si>
+  <si>
+    <t>71ca1d9c-c761-4b15-bd76-c06553fd61d9</t>
+  </si>
+  <si>
+    <t>2899b406-2b39-434d-8526-0803659a3014</t>
+  </si>
+  <si>
+    <t>9c574fe5-6802-495b-870c-d1f703955624</t>
+  </si>
+  <si>
+    <t>292f838c-d31a-44e4-9ea6-eacf561d2f91</t>
+  </si>
+  <si>
+    <t>6db073b3-d64f-4331-9263-aa677f991dcb</t>
+  </si>
+  <si>
+    <t>d6cac744-4edd-4762-a5c8-b6d2f9bb4bad</t>
+  </si>
+  <si>
+    <t>658429fc-a440-4c12-8f1c-74261bda89aa</t>
+  </si>
+  <si>
+    <t>1a467c88-f0e5-4f0f-aef4-a9eb179f3444</t>
+  </si>
+  <si>
+    <t>44bbf56b-cf3c-4e4c-a3a7-a7e318763d68</t>
+  </si>
+  <si>
+    <t>0c251624-2e7d-4b16-a658-91a124c5d49e</t>
+  </si>
+  <si>
+    <t>41f6c253-f622-46ac-90b3-8f1df9a07f8c</t>
+  </si>
+  <si>
+    <t>e3bb5748-8cf7-4384-a6b5-d937299f0bdc</t>
+  </si>
+  <si>
+    <t>dcf2be2b-9af6-45dd-986b-fc09c90cd5b8</t>
+  </si>
+  <si>
+    <t>c98191a9-3432-440a-af9b-af46540bc465</t>
+  </si>
+  <si>
+    <t>b6b89698-1392-4426-99ce-685a3fc93635</t>
+  </si>
+  <si>
+    <t>c426c0ac-618a-4f78-8b5d-2b0c58fa90f0</t>
+  </si>
+  <si>
+    <t>9942267f-78ba-4cbf-a3b4-eab79c01adee</t>
+  </si>
+  <si>
+    <t>a5fc0f2d-22ed-451a-b4e0-54f72ffadacd</t>
+  </si>
+  <si>
+    <t>9d62bc6e-8282-4c9e-b397-fcdc48a5a881</t>
+  </si>
+  <si>
+    <t>fc307632-ed3d-48a1-a461-6d1b12d6f088</t>
+  </si>
+  <si>
+    <t>042baf5c-48ee-4fc0-b6fa-20dfb5b32c00</t>
+  </si>
+  <si>
+    <t>e667300e-61f0-425f-8e0d-4ff8101be831</t>
+  </si>
+  <si>
+    <t>c97e3d12-c15c-4f43-8782-68fd32ee9752</t>
+  </si>
+  <si>
+    <t>6042ac36-0e89-44f2-be1c-6ae19cf434dc</t>
+  </si>
+  <si>
+    <t>41b8bce9-6841-427a-8107-9e18ddb44cf7</t>
+  </si>
+  <si>
+    <t>ab9375e0-98c2-4291-9e93-9b861839e0b0</t>
+  </si>
+  <si>
+    <t>cebaf35f-bb04-4163-b411-00630fa14f8d</t>
+  </si>
+  <si>
+    <t>d6e3d8c2-afe1-4148-b1a9-f2d8de4075ee</t>
+  </si>
+  <si>
+    <t>10203c96-4e01-4a81-81f6-0050d88183af</t>
+  </si>
+  <si>
+    <t>11850bc3-9481-4821-938d-289e38d5ff14</t>
+  </si>
+  <si>
+    <t>237160cb-bdc3-4af2-8c97-bf32d7428615</t>
+  </si>
+  <si>
+    <t>29e6151e-f6f9-4ee8-a5a0-32f59d4f0dfd</t>
+  </si>
+  <si>
+    <t>4296d922-697b-44ad-a244-9fbbba090f2a</t>
+  </si>
+  <si>
+    <t>c239fba7-5063-40eb-b64f-e0acbabcb488</t>
+  </si>
+  <si>
+    <t>39f2450c-a7ad-43ec-a88e-6a6c21bd484f</t>
+  </si>
+  <si>
+    <t>2d5fa524-5776-4458-8a60-4c6a78f7e0e6</t>
+  </si>
+  <si>
+    <t>a896487b-26ba-49dd-a499-ebde3d85b528</t>
+  </si>
+  <si>
+    <t>2e4384f4-8678-4b13-b455-2b1d358f4bd1</t>
+  </si>
+  <si>
+    <t>267fdd4b-ab98-4d0e-a9a4-62585f1fa60b</t>
+  </si>
+  <si>
+    <t>e37462c0-5eea-4dc5-b22f-b3daa0a89881</t>
+  </si>
+  <si>
+    <t>2c6f6c26-b584-459b-b022-1c8dbb620b0b</t>
+  </si>
+  <si>
+    <t>dc131de6-94e4-44ac-9ad6-494bfef0280a</t>
+  </si>
+  <si>
+    <t>5d5e1e11-75cc-46ed-a6f1-f1b16ffa2da2</t>
+  </si>
+  <si>
+    <t>522a9587-b96a-40cf-add0-b96473378eb2</t>
+  </si>
+  <si>
+    <t>1ef964ac-9bf8-484f-bab5-10bce7e7653e</t>
+  </si>
+  <si>
+    <t>fa8f097f-6f96-458e-8c9d-474e04ae8d7b</t>
+  </si>
+  <si>
+    <t>df0f68cc-4e75-475e-98a1-dc0324e5ca4f</t>
+  </si>
+  <si>
+    <t>c9c7f0ca-b33f-4c4e-b34b-de5522702cfb</t>
+  </si>
+  <si>
+    <t>1e63123c-b435-40b5-b658-bfc7eb674ad3</t>
+  </si>
+  <si>
+    <t>67215bb6-97c7-4eae-a555-76df7e0c3c23</t>
+  </si>
+  <si>
+    <t>1d43cd6d-29ee-4a19-8e2e-ea1a61bd8d65</t>
+  </si>
+  <si>
+    <t>0d413fb8-6a5e-40eb-96e2-ba3dcd60cabf</t>
+  </si>
+  <si>
+    <t>ca319850-8a00-48d8-84bc-b59b0ae1e24e</t>
+  </si>
+  <si>
+    <t>540a9de4-1306-490d-ac8c-62043f4cc1f7</t>
+  </si>
+  <si>
+    <t>f95bd798-d09f-43d9-8568-996ba6d96832</t>
+  </si>
+  <si>
+    <t>7f6c3d67-74a6-42a6-aafe-767554f6d89d</t>
+  </si>
+  <si>
+    <t>c84679fc-183f-4e10-b51c-12b445d033e3</t>
+  </si>
+  <si>
+    <t>ecc8a3ea-56c5-446e-b0ae-a9b4a0856637</t>
+  </si>
+  <si>
+    <t>2d1476b8-ceca-4a74-990a-54a47d59bd37</t>
+  </si>
+  <si>
+    <t>c40fa7bb-6320-428e-abe3-99e72ed5811a</t>
+  </si>
+  <si>
+    <t>0586b785-864f-4946-a3ae-246bcb189ded</t>
+  </si>
+  <si>
+    <t>7fca46b5-1b22-486d-8acd-2847cbe6e408</t>
+  </si>
+  <si>
+    <t>9948da97-d556-41c7-b928-c97551ed4f86</t>
+  </si>
+  <si>
+    <t>855055e8-fc86-44dd-874e-6a901f558b79</t>
+  </si>
+  <si>
+    <t>5e700583-7188-482c-b764-23793cd642ce</t>
+  </si>
+  <si>
+    <t>09275fab-81a9-4f1e-8716-cd50baa878aa</t>
+  </si>
+  <si>
+    <t>28301ac4-4eef-4209-af04-63f608af2e6e</t>
+  </si>
+  <si>
+    <t>81f0a393-1771-474d-a4ba-92ccde9fb112</t>
   </si>
 </sst>
 </file>
@@ -296,9 +728,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,17 +1025,16 @@
     <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.21875" customWidth="1"/>
     <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,16 +1045,19 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -631,17 +1067,20 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -651,17 +1090,20 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>59</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -671,17 +1113,20 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -691,17 +1136,20 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -711,17 +1159,20 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -731,17 +1182,20 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -751,17 +1205,20 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -771,17 +1228,20 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -791,394 +1251,4042 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>66</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
+      <c r="D12" s="2">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
+      <c r="D13" s="2">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
+      <c r="D14" s="2">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
+      <c r="D15" s="2">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
+      <c r="D16" s="2">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="2">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="2">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="2">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="2">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="2">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="2">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="2">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="2">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="2">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="2">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2">
+        <v>4</v>
+      </c>
+      <c r="E121" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="2">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="2">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="2">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="2">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>161</v>
+      </c>
+      <c r="B132" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="2">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="2">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>40</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>163</v>
+      </c>
+      <c r="B134" t="s">
+        <v>37</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>164</v>
+      </c>
+      <c r="B135" t="s">
+        <v>37</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="2">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>40</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>40</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="2">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>40</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="2">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
+        <v>40</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>40</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>40</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="2">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>175</v>
+      </c>
+      <c r="B146" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>41</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>176</v>
+      </c>
+      <c r="B147" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>41</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B149" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>41</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>179</v>
+      </c>
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>41</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>181</v>
+      </c>
+      <c r="B152" t="s">
+        <v>38</v>
+      </c>
+      <c r="C152" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>41</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>182</v>
+      </c>
+      <c r="B153" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>183</v>
+      </c>
+      <c r="B154" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="2">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>40</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>185</v>
+      </c>
+      <c r="B156" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="2">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>40</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="2">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" t="s">
+        <v>38</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="2">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>189</v>
+      </c>
+      <c r="B160" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="2">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>190</v>
+      </c>
+      <c r="B161" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>40</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>191</v>
+      </c>
+      <c r="B162" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>40</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>192</v>
+      </c>
+      <c r="B163" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D163" s="2">
+        <v>4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>40</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>193</v>
+      </c>
+      <c r="B164" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D164" s="2">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>194</v>
+      </c>
+      <c r="B165" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>40</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B166" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="2">
+        <v>4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>40</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>196</v>
+      </c>
+      <c r="B167" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="2">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>40</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>197</v>
+      </c>
+      <c r="B168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="2">
+        <v>4</v>
+      </c>
+      <c r="E168" t="s">
+        <v>40</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>198</v>
+      </c>
+      <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="2">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
+        <v>40</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>199</v>
+      </c>
+      <c r="B170" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>200</v>
+      </c>
+      <c r="B171" t="s">
+        <v>38</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="2">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>41</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>201</v>
+      </c>
+      <c r="B172" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="2">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>202</v>
+      </c>
+      <c r="B173" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="2">
+        <v>5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>41</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="2">
+        <v>5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>41</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>204</v>
+      </c>
+      <c r="B175" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="2">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>41</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>205</v>
+      </c>
+      <c r="B176" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="2">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>41</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>206</v>
+      </c>
+      <c r="B177" t="s">
+        <v>38</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>41</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>207</v>
+      </c>
+      <c r="B178" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>208</v>
+      </c>
+      <c r="B179" t="s">
+        <v>38</v>
+      </c>
+      <c r="C179" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D179" s="2">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>209</v>
+      </c>
+      <c r="B180" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="2">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>41</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>210</v>
+      </c>
+      <c r="B181" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D181" s="2">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>41</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B182" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="2">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>41</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>212</v>
+      </c>
+      <c r="B183" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="2">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>41</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>213</v>
+      </c>
+      <c r="B184" t="s">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="2">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>41</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>214</v>
+      </c>
+      <c r="B185" t="s">
         <v>38</v>
       </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="2">
+        <v>5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>41</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/models/data/schedule.xlsx
+++ b/src/models/data/schedule.xlsx
@@ -430,19 +430,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>59d5a88d-e8cd-46e4-b6ea-212e1a47f4f9</v>
+        <v>fb0471f9-1861-4f20-ab74-e9424dd9f8e0</v>
       </c>
       <c r="B2" t="str">
         <v>353066b6-4bb7-4df8-8f46-88f71bf6a182</v>
       </c>
       <c r="C2" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D2" t="str">
         <v>Online</v>
       </c>
       <c r="E2" t="str">
-        <v>3,4,5</v>
+        <v>3,4</v>
       </c>
       <c r="F2" t="str">
         <v>fb723ca8-832b-448b-8b73-ab8a632c3e84</v>
@@ -456,19 +456,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>4c4edfdb-d8e5-4787-8640-eb3a51a6d440</v>
+        <v>79488029-c37b-4024-8e8d-d59d87da2640</v>
       </c>
       <c r="B3" t="str">
         <v>353066b6-4bb7-4df8-8f46-88f71bf6a182</v>
       </c>
       <c r="C3" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D3" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E3" t="str">
-        <v>3,4,5</v>
+        <v>2,6</v>
       </c>
       <c r="F3" t="str">
         <v>fb723ca8-832b-448b-8b73-ab8a632c3e84</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>8340204f-4bce-45a5-9eeb-336d92166f41</v>
+        <v>3429411a-7bde-49b3-92cd-b1d0ef78c35d</v>
       </c>
       <c r="B4" t="str">
         <v>353066b6-4bb7-4df8-8f46-88f71bf6a182</v>
@@ -491,10 +491,10 @@
         <v>Morning</v>
       </c>
       <c r="D4" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E4" t="str">
-        <v>0,1,6</v>
+        <v>0,5</v>
       </c>
       <c r="F4" t="str">
         <v>fb723ca8-832b-448b-8b73-ab8a632c3e84</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3c19331d-6027-4802-8be3-af4be7433e1b</v>
+        <v>663aa23b-4c90-4d1c-8d81-5c0f1b272dc3</v>
       </c>
       <c r="B5" t="str">
         <v>353066b6-4bb7-4df8-8f46-88f71bf6a182</v>
@@ -520,7 +520,7 @@
         <v>Offline</v>
       </c>
       <c r="E5" t="str">
-        <v>0,1,6</v>
+        <v>0,5</v>
       </c>
       <c r="F5" t="str">
         <v>fb723ca8-832b-448b-8b73-ab8a632c3e84</v>
@@ -534,19 +534,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>e8af8b5f-8fb2-4cbf-b0ac-1f96df0e7c34</v>
+        <v>bbc6d27d-758d-4e3b-8e34-47b0c52a96ac</v>
       </c>
       <c r="B6" t="str">
         <v>1aff8187-23a0-4da6-b842-1ec012d2c703</v>
       </c>
       <c r="C6" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D6" t="str">
         <v>Online</v>
       </c>
       <c r="E6" t="str">
-        <v>2,3,5</v>
+        <v>2,5</v>
       </c>
       <c r="F6" t="str">
         <v>eba9a698-8741-4712-b71c-8cbbd6ed5734</v>
@@ -560,19 +560,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0b19f757-469e-42b2-aec8-f3ae02c5c9e1</v>
+        <v>d4e1203d-b4cd-453f-923f-ec00a29f3057</v>
       </c>
       <c r="B7" t="str">
         <v>1aff8187-23a0-4da6-b842-1ec012d2c703</v>
       </c>
       <c r="C7" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E7" t="str">
-        <v>2,3,5</v>
+        <v>1,3</v>
       </c>
       <c r="F7" t="str">
         <v>eba9a698-8741-4712-b71c-8cbbd6ed5734</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>c4ffd53a-336d-4ed8-ba9f-09a2ba2771ad</v>
+        <v>3c0f9215-7be7-4fe6-a2ee-5f4e6c68e014</v>
       </c>
       <c r="B8" t="str">
         <v>1aff8187-23a0-4da6-b842-1ec012d2c703</v>
@@ -595,10 +595,10 @@
         <v>Morning</v>
       </c>
       <c r="D8" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E8" t="str">
-        <v>1,4,6</v>
+        <v>0,4</v>
       </c>
       <c r="F8" t="str">
         <v>eba9a698-8741-4712-b71c-8cbbd6ed5734</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>5bec3aa5-0c40-4702-a8c7-94f4398d43f4</v>
+        <v>90248669-ef18-4d28-873e-07cd14c37224</v>
       </c>
       <c r="B9" t="str">
         <v>1aff8187-23a0-4da6-b842-1ec012d2c703</v>
@@ -624,7 +624,7 @@
         <v>Offline</v>
       </c>
       <c r="E9" t="str">
-        <v>1,4,6</v>
+        <v>0,4</v>
       </c>
       <c r="F9" t="str">
         <v>eba9a698-8741-4712-b71c-8cbbd6ed5734</v>
@@ -638,19 +638,19 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>e3be4a02-b4b4-481d-b8b0-fa47f85348c7</v>
+        <v>20972bb0-4c0c-4287-9142-677825fe2246</v>
       </c>
       <c r="B10" t="str">
         <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
       </c>
       <c r="C10" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D10" t="str">
         <v>Online</v>
       </c>
       <c r="E10" t="str">
-        <v>1,2,6</v>
+        <v>2,6</v>
       </c>
       <c r="F10" t="str">
         <v>eba9a698-8741-4712-b71c-8cbbd6ed5734</v>
@@ -664,19 +664,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>11390516-6cbf-4b4e-a3fa-e1a10a59293b</v>
+        <v>7856dd18-95f6-4760-a47a-25256da9864e</v>
       </c>
       <c r="B11" t="str">
         <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
       </c>
       <c r="C11" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D11" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E11" t="str">
-        <v>1,2,6</v>
+        <v>0,1</v>
       </c>
       <c r="F11" t="str">
         <v>eba9a698-8741-4712-b71c-8cbbd6ed5734</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>c176b08a-3148-4fed-b21a-b7c0c444d406</v>
+        <v>eb52979a-999b-43ac-af27-fd3a88f6dce8</v>
       </c>
       <c r="B12" t="str">
         <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
@@ -699,10 +699,10 @@
         <v>Morning</v>
       </c>
       <c r="D12" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E12" t="str">
-        <v>0,3,5</v>
+        <v>4,5</v>
       </c>
       <c r="F12" t="str">
         <v>eba9a698-8741-4712-b71c-8cbbd6ed5734</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>408676fa-f0d9-4309-8a72-13c89a3dca9b</v>
+        <v>d6256d87-09cf-406c-ad10-10187ef93941</v>
       </c>
       <c r="B13" t="str">
         <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
@@ -728,7 +728,7 @@
         <v>Offline</v>
       </c>
       <c r="E13" t="str">
-        <v>0,3,5</v>
+        <v>4,5</v>
       </c>
       <c r="F13" t="str">
         <v>eba9a698-8741-4712-b71c-8cbbd6ed5734</v>
@@ -742,19 +742,19 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>caf62752-276d-499a-9ece-fb80fa34f3bb</v>
+        <v>70690b24-49ca-4a36-ac33-518e391f294c</v>
       </c>
       <c r="B14" t="str">
         <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
       </c>
       <c r="C14" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D14" t="str">
         <v>Online</v>
       </c>
       <c r="E14" t="str">
-        <v>0,3,5</v>
+        <v>3,4</v>
       </c>
       <c r="F14" t="str">
         <v>9b536245-36e6-410a-ac4a-8edeed937397</v>
@@ -768,19 +768,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>49f79328-dcd4-434a-9e6c-01197be3cd82</v>
+        <v>ce80d9dc-2faf-411b-a999-cc916e97d00f</v>
       </c>
       <c r="B15" t="str">
         <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
       </c>
       <c r="C15" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D15" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E15" t="str">
-        <v>0,3,5</v>
+        <v>2,6</v>
       </c>
       <c r="F15" t="str">
         <v>9b536245-36e6-410a-ac4a-8edeed937397</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>a50eeed0-6cf2-46ad-95fb-88220f29a242</v>
+        <v>492d8a7b-0200-4fea-a919-26fe67902af8</v>
       </c>
       <c r="B16" t="str">
         <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
@@ -803,10 +803,10 @@
         <v>Morning</v>
       </c>
       <c r="D16" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E16" t="str">
-        <v>1,2,6</v>
+        <v>0,1</v>
       </c>
       <c r="F16" t="str">
         <v>9b536245-36e6-410a-ac4a-8edeed937397</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>eb1197e7-2f85-41eb-ad5b-cd3519543a34</v>
+        <v>99ad600e-c97a-4e58-abec-47a98fb5f9af</v>
       </c>
       <c r="B17" t="str">
         <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
@@ -832,7 +832,7 @@
         <v>Offline</v>
       </c>
       <c r="E17" t="str">
-        <v>1,2,6</v>
+        <v>0,1</v>
       </c>
       <c r="F17" t="str">
         <v>9b536245-36e6-410a-ac4a-8edeed937397</v>
@@ -846,19 +846,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>bab17208-afa0-44d8-8124-8f1cff812063</v>
+        <v>74b38591-aeaa-44f4-9b4e-76d29f8c66f7</v>
       </c>
       <c r="B18" t="str">
         <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
       </c>
       <c r="C18" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D18" t="str">
         <v>Online</v>
       </c>
       <c r="E18" t="str">
-        <v>3,5,6</v>
+        <v>0,4</v>
       </c>
       <c r="F18" t="str">
         <v>e41b1a6f-2d65-49d4-8af9-59159a0c374c</v>
@@ -872,19 +872,19 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>e639080d-cf89-4860-bf98-44b2d7c1b0d5</v>
+        <v>ad4c040b-3da7-4b74-91c0-c75aec50ae45</v>
       </c>
       <c r="B19" t="str">
         <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
       </c>
       <c r="C19" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D19" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E19" t="str">
-        <v>3,5,6</v>
+        <v>2,3</v>
       </c>
       <c r="F19" t="str">
         <v>e41b1a6f-2d65-49d4-8af9-59159a0c374c</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>047463a9-9a44-42dd-a980-3de65266f0fd</v>
+        <v>d0eee778-3f04-4244-bf43-b6b1d695621e</v>
       </c>
       <c r="B20" t="str">
         <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
@@ -907,10 +907,10 @@
         <v>Morning</v>
       </c>
       <c r="D20" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E20" t="str">
-        <v>0,1,4</v>
+        <v>5,6</v>
       </c>
       <c r="F20" t="str">
         <v>e41b1a6f-2d65-49d4-8af9-59159a0c374c</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>ffb3a2db-cf3d-4d42-bb73-6f4b880dbc16</v>
+        <v>0837b04e-2e99-49eb-8cce-f01f0386a7e3</v>
       </c>
       <c r="B21" t="str">
         <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
@@ -936,7 +936,7 @@
         <v>Offline</v>
       </c>
       <c r="E21" t="str">
-        <v>0,1,4</v>
+        <v>5,6</v>
       </c>
       <c r="F21" t="str">
         <v>e41b1a6f-2d65-49d4-8af9-59159a0c374c</v>
@@ -950,19 +950,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>dc5e45d7-a883-4115-8bc5-5d3ddaf4f070</v>
+        <v>4d7acdb3-b5aa-4dda-b141-0b39afd0f015</v>
       </c>
       <c r="B22" t="str">
         <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
       </c>
       <c r="C22" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D22" t="str">
         <v>Online</v>
       </c>
       <c r="E22" t="str">
-        <v>4,5,6</v>
+        <v>2,5</v>
       </c>
       <c r="F22" t="str">
         <v>fdd9d6f5-68d2-4923-9895-808d976f5dd1</v>
@@ -976,19 +976,19 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>8deb2700-0aef-4bbe-b098-2772860fbe93</v>
+        <v>8dea202f-7fb9-4856-916b-d89fa5c85f21</v>
       </c>
       <c r="B23" t="str">
         <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
       </c>
       <c r="C23" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D23" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E23" t="str">
-        <v>4,5,6</v>
+        <v>3,4</v>
       </c>
       <c r="F23" t="str">
         <v>fdd9d6f5-68d2-4923-9895-808d976f5dd1</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>3746fc3b-0671-4db9-9104-ca3480393a50</v>
+        <v>9efe83ed-6eda-4c60-ba01-c9e6549580e1</v>
       </c>
       <c r="B24" t="str">
         <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
@@ -1011,10 +1011,10 @@
         <v>Morning</v>
       </c>
       <c r="D24" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E24" t="str">
-        <v>0,1,2</v>
+        <v>0,1</v>
       </c>
       <c r="F24" t="str">
         <v>fdd9d6f5-68d2-4923-9895-808d976f5dd1</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0a3369bc-8d0e-4027-8ebf-5caa3c1b6bf4</v>
+        <v>99c4ee0b-3d30-42de-a075-37e6e211a47f</v>
       </c>
       <c r="B25" t="str">
         <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
@@ -1040,7 +1040,7 @@
         <v>Offline</v>
       </c>
       <c r="E25" t="str">
-        <v>0,1,2</v>
+        <v>0,1</v>
       </c>
       <c r="F25" t="str">
         <v>fdd9d6f5-68d2-4923-9895-808d976f5dd1</v>
@@ -1054,19 +1054,19 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0a4d4f6f-d37d-4802-b97a-a4b748021945</v>
+        <v>00e79482-262a-4f56-9682-2dc0cff96e54</v>
       </c>
       <c r="B26" t="str">
         <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
       </c>
       <c r="C26" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D26" t="str">
         <v>Online</v>
       </c>
       <c r="E26" t="str">
-        <v>0,1,4</v>
+        <v>0,2</v>
       </c>
       <c r="F26" t="str">
         <v>bb5bba1d-1899-4fe7-a2dd-32fc60cebe38</v>
@@ -1080,19 +1080,19 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>49c21b89-4a3c-4972-9be3-2391a6673a6a</v>
+        <v>aa30b3f5-13d0-4e1d-8195-e81c7d12aeae</v>
       </c>
       <c r="B27" t="str">
         <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
       </c>
       <c r="C27" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D27" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E27" t="str">
-        <v>0,1,4</v>
+        <v>1,6</v>
       </c>
       <c r="F27" t="str">
         <v>bb5bba1d-1899-4fe7-a2dd-32fc60cebe38</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>d0157a54-a9e3-4849-bb75-13ae934d03c1</v>
+        <v>385fff74-d7b3-41de-bf1d-863e35c64636</v>
       </c>
       <c r="B28" t="str">
         <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
@@ -1115,10 +1115,10 @@
         <v>Morning</v>
       </c>
       <c r="D28" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E28" t="str">
-        <v>3,5,6</v>
+        <v>3,4</v>
       </c>
       <c r="F28" t="str">
         <v>bb5bba1d-1899-4fe7-a2dd-32fc60cebe38</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>355e61fc-9210-43c3-8ad8-1da366145c68</v>
+        <v>5558de92-4557-4ad7-b0bf-d39bdf863a70</v>
       </c>
       <c r="B29" t="str">
         <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
@@ -1144,7 +1144,7 @@
         <v>Offline</v>
       </c>
       <c r="E29" t="str">
-        <v>3,5,6</v>
+        <v>3,4</v>
       </c>
       <c r="F29" t="str">
         <v>bb5bba1d-1899-4fe7-a2dd-32fc60cebe38</v>
@@ -1158,19 +1158,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2c24b256-2484-4b13-8963-2b8ac19abe48</v>
+        <v>10365377-10e7-4e7f-b060-f5421f3238e4</v>
       </c>
       <c r="B30" t="str">
         <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
       </c>
       <c r="C30" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D30" t="str">
         <v>Online</v>
       </c>
       <c r="E30" t="str">
-        <v>2,4,5</v>
+        <v>1,2</v>
       </c>
       <c r="F30" t="str">
         <v>3a076763-c856-4143-a214-67842ea7703c</v>
@@ -1184,19 +1184,19 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>5750c528-df8e-4fbb-91c3-89a9cddc10d6</v>
+        <v>78431c0c-6f45-4053-aeac-e4e9cb2156f4</v>
       </c>
       <c r="B31" t="str">
         <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
       </c>
       <c r="C31" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D31" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E31" t="str">
-        <v>2,4,5</v>
+        <v>0,6</v>
       </c>
       <c r="F31" t="str">
         <v>3a076763-c856-4143-a214-67842ea7703c</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>fd35f600-e8b4-4007-9285-093a6acd208a</v>
+        <v>9dabc56b-7967-41f9-bde4-96ff3f7ebc64</v>
       </c>
       <c r="B32" t="str">
         <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
@@ -1222,7 +1222,7 @@
         <v>Offline</v>
       </c>
       <c r="E32" t="str">
-        <v>0,1,3</v>
+        <v>4,5</v>
       </c>
       <c r="F32" t="str">
         <v>3a076763-c856-4143-a214-67842ea7703c</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>9c94eea2-b6b8-48c5-89ab-93630503dd5b</v>
+        <v>8ac4e990-bb6f-4958-997c-308bebb6521e</v>
       </c>
       <c r="B33" t="str">
         <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
@@ -1245,10 +1245,10 @@
         <v>Afternoon</v>
       </c>
       <c r="D33" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E33" t="str">
-        <v>0,1,3</v>
+        <v>4,5</v>
       </c>
       <c r="F33" t="str">
         <v>3a076763-c856-4143-a214-67842ea7703c</v>
@@ -1262,19 +1262,19 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>b8b70692-ed3a-4827-8c7c-26ec320320ff</v>
+        <v>d5db8c09-d0d4-4469-9223-730b34de2c60</v>
       </c>
       <c r="B34" t="str">
         <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
       </c>
       <c r="C34" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D34" t="str">
         <v>Online</v>
       </c>
       <c r="E34" t="str">
-        <v>0,2,4</v>
+        <v>1,4</v>
       </c>
       <c r="F34" t="str">
         <v>fdd9d6f5-68d2-4923-9895-808d976f5dd1</v>
@@ -1288,19 +1288,19 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>16cfde9a-3604-4dc3-8ada-234c7b8ab921</v>
+        <v>4c004813-0111-45b6-8293-e34ad2888892</v>
       </c>
       <c r="B35" t="str">
         <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
       </c>
       <c r="C35" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D35" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E35" t="str">
-        <v>0,2,4</v>
+        <v>0,3</v>
       </c>
       <c r="F35" t="str">
         <v>fdd9d6f5-68d2-4923-9895-808d976f5dd1</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>73adbbf1-5e87-422a-aeed-ca5bc30fa1f0</v>
+        <v>82424afb-2c25-4308-838b-6f20222782b2</v>
       </c>
       <c r="B36" t="str">
         <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
@@ -1323,10 +1323,10 @@
         <v>Morning</v>
       </c>
       <c r="D36" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E36" t="str">
-        <v>1,3,6</v>
+        <v>5,6</v>
       </c>
       <c r="F36" t="str">
         <v>fdd9d6f5-68d2-4923-9895-808d976f5dd1</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>979f392d-2f15-4dc3-8d74-3541a23253d7</v>
+        <v>9194e424-0a4b-447b-ba83-7752d9bd09a6</v>
       </c>
       <c r="B37" t="str">
         <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
@@ -1352,7 +1352,7 @@
         <v>Offline</v>
       </c>
       <c r="E37" t="str">
-        <v>1,3,6</v>
+        <v>5,6</v>
       </c>
       <c r="F37" t="str">
         <v>fdd9d6f5-68d2-4923-9895-808d976f5dd1</v>
@@ -1366,19 +1366,19 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>9a11af8f-bda9-4cce-8de6-1322f9d5edcc</v>
+        <v>44872e04-e50e-49de-98b0-422599a6a1d3</v>
       </c>
       <c r="B38" t="str">
         <v>b3d5fd58-55e3-4920-ae44-f30abe9ac904</v>
       </c>
       <c r="C38" t="str">
-        <v>Morning</v>
+        <v>WholeDay</v>
       </c>
       <c r="D38" t="str">
         <v>Online</v>
       </c>
       <c r="E38" t="str">
-        <v>0,4,5</v>
+        <v>2,6</v>
       </c>
       <c r="F38" t="str">
         <v>b9238e62-1a0d-4c2a-b98f-a3420ff1f463</v>
@@ -1392,19 +1392,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>bdb765ab-6412-41e4-b1c4-08adbf4974f0</v>
+        <v>d81ed1bf-95b1-4a99-9063-158f97004cbd</v>
       </c>
       <c r="B39" t="str">
         <v>b3d5fd58-55e3-4920-ae44-f30abe9ac904</v>
       </c>
       <c r="C39" t="str">
-        <v>Afternoon</v>
+        <v>WholeDay</v>
       </c>
       <c r="D39" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="E39" t="str">
-        <v>0,4,5</v>
+        <v>0,4</v>
       </c>
       <c r="F39" t="str">
         <v>b9238e62-1a0d-4c2a-b98f-a3420ff1f463</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>91cb1e70-1536-410b-9183-73313023a7a0</v>
+        <v>35813b8f-0909-4907-a049-fdd3250bd8b7</v>
       </c>
       <c r="B40" t="str">
         <v>b3d5fd58-55e3-4920-ae44-f30abe9ac904</v>
@@ -1427,10 +1427,10 @@
         <v>Morning</v>
       </c>
       <c r="D40" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="E40" t="str">
-        <v>1,2,6</v>
+        <v>3,5</v>
       </c>
       <c r="F40" t="str">
         <v>b9238e62-1a0d-4c2a-b98f-a3420ff1f463</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>387b366e-26e2-483b-8cd6-b14bdeb297b4</v>
+        <v>603e564e-39dd-4e92-945f-3263f9b2f5ba</v>
       </c>
       <c r="B41" t="str">
         <v>b3d5fd58-55e3-4920-ae44-f30abe9ac904</v>
@@ -1456,7 +1456,7 @@
         <v>Offline</v>
       </c>
       <c r="E41" t="str">
-        <v>1,2,6</v>
+        <v>3,5</v>
       </c>
       <c r="F41" t="str">
         <v>b9238e62-1a0d-4c2a-b98f-a3420ff1f463</v>
